--- a/2 - Sistemas de Controlo Distribuído em Tempo Real/Labs/LUXvsPWM.xlsx
+++ b/2 - Sistemas de Controlo Distribuído em Tempo Real/Labs/LUXvsPWM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\University\2 - Sistemas de Controlo Distribuído em Tempo Real\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DBFC5DF-F23C-4634-8BEA-19357B1E4103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46549A6-6B2E-4EFA-B3D5-A3F6ABF81228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{50DC74B4-98CD-46BB-945B-FC7AE172991C}"/>
   </bookViews>
@@ -36,19 +36,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>u</t>
   </si>
   <si>
     <t>Lux</t>
   </si>
+  <si>
+    <t>m = -0.7</t>
+  </si>
+  <si>
+    <t>m = -0.8</t>
+  </si>
+  <si>
+    <t>m = -0.5</t>
+  </si>
+  <si>
+    <t>m = -0.9</t>
+  </si>
+  <si>
+    <t>m = -1.3</t>
+  </si>
+  <si>
+    <t>m = -1.5</t>
+  </si>
+  <si>
+    <t>m = -1.1</t>
+  </si>
+  <si>
+    <t>m = -1.0</t>
+  </si>
+  <si>
+    <t>m = -1.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +89,24 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,9 +121,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,12 +306,26 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11811220472440945"/>
-                  <c:y val="-0.23462707786526685"/>
+                  <c:x val="4.5889982502187225E-2"/>
+                  <c:y val="-0.18116178186060075"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -348,7 +410,7 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14000000000000001</c:v>
@@ -360,22 +422,22 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +629,3809 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7998906386701662E-2"/>
+                  <c:y val="-0.1853164187809857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$C$22:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$D$22:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE7C-4235-B3C5-CF883C6EACBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1667999376"/>
+        <c:axId val="1668003216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1667999376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668003216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1668003216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667999376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1351706036745406E-3"/>
+                  <c:y val="-0.27483632254301543"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$C$41:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$D$41:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38DA-4016-905C-044A0DE0A556}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1667987376"/>
+        <c:axId val="1668006576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1667987376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668006576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1668006576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667987376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$Q$1:$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>m = -0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1076071741032371"/>
+                  <c:y val="-0.24349190726159231"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3753718285214352E-2"/>
+                  <c:y val="-0.19256598133566638"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$P$4:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$Q$4:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3A3-42AF-836C-7E1086A2A1E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1667992176"/>
+        <c:axId val="1667994096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1667992176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667994096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1667994096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1667992176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1801837270341207E-2"/>
+                  <c:y val="-0.16911563137941091"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$P$22:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$Q$22:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5177-4C62-97E7-DEDD9E3E61C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1771065440"/>
+        <c:axId val="1771065920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1771065440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771065920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1771065920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771065440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$Q$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6071741032370955E-3"/>
+                  <c:y val="-0.18190470982793819"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$P$40:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$Q$40:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8294-4EA9-BF5C-2A32D4DD3670}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1668008496"/>
+        <c:axId val="1668002736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1668008496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668002736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1668002736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668008496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$AC$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1496062992125985E-2"/>
+                  <c:y val="-0.16245370370370371"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$AB$5:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$AC$5:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-222F-4C12-8C02-3FE97C1E5C55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1661760320"/>
+        <c:axId val="1661745920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1661760320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661745920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1661745920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661760320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$AC$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7607174103237097E-2"/>
+                  <c:y val="-0.19977252843394575"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$AB$22:$AB$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$AC$22:$AC$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76DF-48E2-9934-109707CB82B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1601155904"/>
+        <c:axId val="1601148704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1601155904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601148704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1601148704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601155904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$AC$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9829396325459317E-2"/>
+                  <c:y val="-0.23646981627296587"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$AB$40:$AB$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$AC$40:$AC$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5171-4CD2-92C1-642499CDF0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1661759360"/>
+        <c:axId val="1661756960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1661759360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661756960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1661756960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661759360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1123,6 +4987,4134 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1156,6 +9148,294 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7332C3E-E87A-4896-D3BD-62B2C9717049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C932E80-23E9-BAF3-4529-93B14FAF4C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FEA3EE-E0EA-83D9-E85D-253D4F30F581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8E4359-3FF8-8042-42E5-93ADAFA2E771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5D85E1-03BF-263A-2A9A-70231F564FFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8117A2A-C3F6-EF18-A62D-BC4F136F09F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Gráfico 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17967CE4-D9B0-AAF0-A042-ABA4F70F0E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Gráfico 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA45B4-E210-B54E-1B1D-E02D176F32F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1481,108 +9761,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6E3B2-DC2A-49A7-9ECD-DE22FE0CAC2C}">
-  <dimension ref="C3:D14"/>
+  <dimension ref="C1:AJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4">
         <v>0.08</v>
       </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>25.5</v>
       </c>
       <c r="D5">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>51</v>
       </c>
       <c r="D6">
         <v>0.14000000000000001</v>
       </c>
+      <c r="P6" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>76.5</v>
       </c>
       <c r="D7">
         <v>0.2</v>
       </c>
+      <c r="P7" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>102</v>
       </c>
       <c r="D8">
         <v>0.3</v>
       </c>
+      <c r="P8" s="1">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>127.5</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0.37</v>
+      </c>
+      <c r="P9" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>102</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0.78</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>153</v>
       </c>
       <c r="D10">
-        <v>0.52</v>
+        <v>0.48</v>
+      </c>
+      <c r="P10" s="1">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>178.5</v>
       </c>
       <c r="D11">
-        <v>0.59</v>
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="1">
+        <v>178.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>153</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1.04</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>204</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>0.68</v>
+      </c>
+      <c r="P12" s="1">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>178.5</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1.23</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>229.5</v>
       </c>
       <c r="D13">
-        <v>0.88</v>
+        <v>0.8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>204</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1.29</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>255</v>
       </c>
       <c r="D14">
-        <v>0.97</v>
+        <v>0.93</v>
+      </c>
+      <c r="P14" s="1">
+        <v>255</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AB15" s="1">
+        <v>255</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.04</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="D23">
+        <v>0.04</v>
+      </c>
+      <c r="P23" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>0.08</v>
+      </c>
+      <c r="P24" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>51</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="D25">
+        <v>0.12</v>
+      </c>
+      <c r="P25" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>102</v>
+      </c>
+      <c r="D26">
+        <v>0.18</v>
+      </c>
+      <c r="P26" s="1">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>102</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="D27">
+        <v>0.23</v>
+      </c>
+      <c r="P27" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <v>0.31</v>
+      </c>
+      <c r="P28" s="1">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>153</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>178.5</v>
+      </c>
+      <c r="D29">
+        <v>0.37</v>
+      </c>
+      <c r="P29" s="1">
+        <v>178.5</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>178.5</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>204</v>
+      </c>
+      <c r="D30">
+        <v>0.46</v>
+      </c>
+      <c r="P30" s="1">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>204</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="D31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P31" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>255</v>
+      </c>
+      <c r="D32">
+        <v>0.63</v>
+      </c>
+      <c r="P32" s="1">
+        <v>255</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>255</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="37" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+    </row>
+    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+    </row>
+    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+    </row>
+    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+    </row>
+    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+    </row>
+    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>51</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+    </row>
+    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>0.01</v>
+      </c>
+      <c r="P43" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+    </row>
+    <row r="44" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="D44">
+        <v>0.02</v>
+      </c>
+      <c r="P44" s="1">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>102</v>
+      </c>
+      <c r="AC44" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+    </row>
+    <row r="45" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>102</v>
+      </c>
+      <c r="D45">
+        <v>0.03</v>
+      </c>
+      <c r="P45" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>127.5</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+    </row>
+    <row r="46" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="D46">
+        <v>0.05</v>
+      </c>
+      <c r="P46" s="1">
+        <v>153</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>153</v>
+      </c>
+      <c r="AC46" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+    </row>
+    <row r="47" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>153</v>
+      </c>
+      <c r="D47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P47" s="1">
+        <v>178.5</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>178.5</v>
+      </c>
+      <c r="AC47" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+    </row>
+    <row r="48" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>178.5</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="P48" s="1">
+        <v>204</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>204</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>1.59</v>
+      </c>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+    </row>
+    <row r="49" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>204</v>
+      </c>
+      <c r="D49">
+        <v>0.12</v>
+      </c>
+      <c r="P49" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>229.5</v>
+      </c>
+      <c r="AC49" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+    </row>
+    <row r="50" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="D50">
+        <v>0.16</v>
+      </c>
+      <c r="P50" s="1">
+        <v>255</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>255</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+    </row>
+    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>255</v>
+      </c>
+      <c r="D51">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
